--- a/Geospatial Water Price Inputs/PNNL Water Survey/PNNL_water_rates_with_fips.xlsx
+++ b/Geospatial Water Price Inputs/PNNL Water Survey/PNNL_water_rates_with_fips.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="517">
   <si>
     <t>State</t>
   </si>
@@ -40,6 +40,9 @@
     <t>Escalation Rate</t>
   </si>
   <si>
+    <t>Water Region</t>
+  </si>
+  <si>
     <t>Actual Escalation Rate</t>
   </si>
   <si>
@@ -49,6 +52,9 @@
     <t>FIPS</t>
   </si>
   <si>
+    <t>State FIPS</t>
+  </si>
+  <si>
     <t>IL</t>
   </si>
   <si>
@@ -826,6 +832,27 @@
     <t>Seattle Public Utilities</t>
   </si>
   <si>
+    <t>Mideast-East Central North</t>
+  </si>
+  <si>
+    <t>Midwest-West Central North</t>
+  </si>
+  <si>
+    <t>Northeast</t>
+  </si>
+  <si>
+    <t>South-Southeast</t>
+  </si>
+  <si>
+    <t>South-West South Central</t>
+  </si>
+  <si>
+    <t>West-Mountain</t>
+  </si>
+  <si>
+    <t>West-Pacific</t>
+  </si>
+  <si>
     <t>Macon County</t>
   </si>
   <si>
@@ -1418,6 +1445,126 @@
   </si>
   <si>
     <t>53033</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>53</t>
   </si>
 </sst>
 </file>
@@ -1775,13 +1922,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K113"/>
+  <dimension ref="A1:M113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1815,16 +1962,22 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D2">
         <v>1.86</v>
@@ -1841,25 +1994,31 @@
       <c r="H2">
         <v>0.048</v>
       </c>
-      <c r="I2">
+      <c r="I2" t="s">
+        <v>272</v>
+      </c>
+      <c r="J2">
         <v>0.04772990772227437</v>
       </c>
-      <c r="J2" t="s">
-        <v>270</v>
-      </c>
       <c r="K2" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>279</v>
+      </c>
+      <c r="L2" t="s">
+        <v>375</v>
+      </c>
+      <c r="M2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D3">
         <v>2.08</v>
@@ -1876,25 +2035,31 @@
       <c r="H3">
         <v>0.03</v>
       </c>
-      <c r="I3">
+      <c r="I3" t="s">
+        <v>272</v>
+      </c>
+      <c r="J3">
         <v>0.02962175780106779</v>
       </c>
-      <c r="J3" t="s">
-        <v>271</v>
-      </c>
       <c r="K3" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>280</v>
+      </c>
+      <c r="L3" t="s">
+        <v>376</v>
+      </c>
+      <c r="M3" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C4" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D4">
         <v>3.85</v>
@@ -1911,25 +2076,31 @@
       <c r="H4">
         <v>0.031</v>
       </c>
-      <c r="I4">
+      <c r="I4" t="s">
+        <v>272</v>
+      </c>
+      <c r="J4">
         <v>0.03106049109761755</v>
       </c>
-      <c r="J4" t="s">
-        <v>272</v>
-      </c>
       <c r="K4" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>281</v>
+      </c>
+      <c r="L4" t="s">
+        <v>377</v>
+      </c>
+      <c r="M4" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D5">
         <v>2.63</v>
@@ -1946,25 +2117,31 @@
       <c r="H5">
         <v>0.007</v>
       </c>
-      <c r="I5">
+      <c r="I5" t="s">
+        <v>272</v>
+      </c>
+      <c r="J5">
         <v>0.007009564173906524</v>
       </c>
-      <c r="J5" t="s">
-        <v>273</v>
-      </c>
       <c r="K5" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>282</v>
+      </c>
+      <c r="L5" t="s">
+        <v>378</v>
+      </c>
+      <c r="M5" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C6" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D6">
         <v>1.31</v>
@@ -1981,25 +2158,31 @@
       <c r="H6">
         <v>0.109</v>
       </c>
-      <c r="I6">
+      <c r="I6" t="s">
+        <v>272</v>
+      </c>
+      <c r="J6">
         <v>0.1084663057505706</v>
       </c>
-      <c r="J6" t="s">
-        <v>274</v>
-      </c>
       <c r="K6" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>283</v>
+      </c>
+      <c r="L6" t="s">
+        <v>379</v>
+      </c>
+      <c r="M6" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D7">
         <v>1.16</v>
@@ -2016,25 +2199,31 @@
       <c r="H7">
         <v>0.115</v>
       </c>
-      <c r="I7">
+      <c r="I7" t="s">
+        <v>272</v>
+      </c>
+      <c r="J7">
         <v>0.1154454873295636</v>
       </c>
-      <c r="J7" t="s">
-        <v>275</v>
-      </c>
       <c r="K7" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>284</v>
+      </c>
+      <c r="L7" t="s">
+        <v>380</v>
+      </c>
+      <c r="M7" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C8" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D8">
         <v>2.36</v>
@@ -2051,25 +2240,31 @@
       <c r="H8">
         <v>0.032</v>
       </c>
-      <c r="I8">
+      <c r="I8" t="s">
+        <v>272</v>
+      </c>
+      <c r="J8">
         <v>0.03187196907620748</v>
       </c>
-      <c r="J8" t="s">
-        <v>276</v>
-      </c>
       <c r="K8" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>285</v>
+      </c>
+      <c r="L8" t="s">
+        <v>381</v>
+      </c>
+      <c r="M8" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C9" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D9">
         <v>3.81</v>
@@ -2086,25 +2281,31 @@
       <c r="H9">
         <v>0.038</v>
       </c>
-      <c r="I9">
+      <c r="I9" t="s">
+        <v>272</v>
+      </c>
+      <c r="J9">
         <v>0.0381630492673728</v>
       </c>
-      <c r="J9" t="s">
-        <v>277</v>
-      </c>
       <c r="K9" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>286</v>
+      </c>
+      <c r="L9" t="s">
+        <v>382</v>
+      </c>
+      <c r="M9" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C10" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D10">
         <v>2.25</v>
@@ -2121,25 +2322,31 @@
       <c r="H10">
         <v>0.026</v>
       </c>
-      <c r="I10">
+      <c r="I10" t="s">
+        <v>272</v>
+      </c>
+      <c r="J10">
         <v>0.02622033970555027</v>
       </c>
-      <c r="J10" t="s">
-        <v>278</v>
-      </c>
       <c r="K10" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>287</v>
+      </c>
+      <c r="L10" t="s">
+        <v>383</v>
+      </c>
+      <c r="M10" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C11" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D11">
         <v>1.94</v>
@@ -2156,25 +2363,31 @@
       <c r="H11">
         <v>0.053</v>
       </c>
-      <c r="I11">
+      <c r="I11" t="s">
+        <v>272</v>
+      </c>
+      <c r="J11">
         <v>0.05307703889533655</v>
       </c>
-      <c r="J11" t="s">
-        <v>279</v>
-      </c>
       <c r="K11" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>288</v>
+      </c>
+      <c r="L11" t="s">
+        <v>384</v>
+      </c>
+      <c r="M11" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C12" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D12">
         <v>2.05</v>
@@ -2191,25 +2404,31 @@
       <c r="H12">
         <v>0.018</v>
       </c>
-      <c r="I12">
+      <c r="I12" t="s">
+        <v>272</v>
+      </c>
+      <c r="J12">
         <v>0.01845058161839064</v>
       </c>
-      <c r="J12" t="s">
-        <v>280</v>
-      </c>
       <c r="K12" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>289</v>
+      </c>
+      <c r="L12" t="s">
+        <v>385</v>
+      </c>
+      <c r="M12" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C13" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D13">
         <v>1.87</v>
@@ -2226,25 +2445,31 @@
       <c r="H13">
         <v>0.024</v>
       </c>
-      <c r="I13">
+      <c r="I13" t="s">
+        <v>272</v>
+      </c>
+      <c r="J13">
         <v>0.02339340500637377</v>
       </c>
-      <c r="J13" t="s">
-        <v>281</v>
-      </c>
       <c r="K13" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+        <v>290</v>
+      </c>
+      <c r="L13" t="s">
+        <v>386</v>
+      </c>
+      <c r="M13" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C14" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D14">
         <v>1.41</v>
@@ -2261,25 +2486,31 @@
       <c r="H14">
         <v>0.01</v>
       </c>
-      <c r="I14">
+      <c r="I14" t="s">
+        <v>272</v>
+      </c>
+      <c r="J14">
         <v>0.009771581217950631</v>
       </c>
-      <c r="J14" t="s">
-        <v>282</v>
-      </c>
       <c r="K14" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <v>291</v>
+      </c>
+      <c r="L14" t="s">
+        <v>387</v>
+      </c>
+      <c r="M14" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C15" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D15">
         <v>1.4</v>
@@ -2296,25 +2527,31 @@
       <c r="H15">
         <v>0.048</v>
       </c>
-      <c r="I15">
+      <c r="I15" t="s">
+        <v>273</v>
+      </c>
+      <c r="J15">
         <v>0.04845952960151556</v>
       </c>
-      <c r="J15" t="s">
-        <v>283</v>
-      </c>
       <c r="K15" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+        <v>292</v>
+      </c>
+      <c r="L15" t="s">
+        <v>388</v>
+      </c>
+      <c r="M15" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C16" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D16">
         <v>1.76</v>
@@ -2331,25 +2568,31 @@
       <c r="H16">
         <v>0.066</v>
       </c>
-      <c r="I16">
+      <c r="I16" t="s">
+        <v>273</v>
+      </c>
+      <c r="J16">
         <v>0.06620746685304235</v>
       </c>
-      <c r="J16" t="s">
-        <v>284</v>
-      </c>
       <c r="K16" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+        <v>293</v>
+      </c>
+      <c r="L16" t="s">
+        <v>389</v>
+      </c>
+      <c r="M16" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C17" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D17">
         <v>1.05</v>
@@ -2366,25 +2609,31 @@
       <c r="H17">
         <v>0.08400000000000001</v>
       </c>
-      <c r="I17">
+      <c r="I17" t="s">
+        <v>273</v>
+      </c>
+      <c r="J17">
         <v>0.08387721580437457</v>
       </c>
-      <c r="J17" t="s">
-        <v>285</v>
-      </c>
       <c r="K17" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+        <v>294</v>
+      </c>
+      <c r="L17" t="s">
+        <v>390</v>
+      </c>
+      <c r="M17" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C18" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D18">
         <v>4.6</v>
@@ -2401,25 +2650,31 @@
       <c r="H18">
         <v>0.005</v>
       </c>
-      <c r="I18">
+      <c r="I18" t="s">
+        <v>273</v>
+      </c>
+      <c r="J18">
         <v>0.005197747578236322</v>
       </c>
-      <c r="J18" t="s">
-        <v>286</v>
-      </c>
       <c r="K18" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+        <v>295</v>
+      </c>
+      <c r="L18" t="s">
+        <v>391</v>
+      </c>
+      <c r="M18" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C19" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D19">
         <v>2.85</v>
@@ -2436,25 +2691,31 @@
       <c r="H19">
         <v>0.059</v>
       </c>
-      <c r="I19">
+      <c r="I19" t="s">
+        <v>273</v>
+      </c>
+      <c r="J19">
         <v>0.05880015719322906</v>
       </c>
-      <c r="J19" t="s">
-        <v>286</v>
-      </c>
       <c r="K19" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+        <v>295</v>
+      </c>
+      <c r="L19" t="s">
+        <v>391</v>
+      </c>
+      <c r="M19" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C20" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D20">
         <v>5.02</v>
@@ -2471,25 +2732,31 @@
       <c r="H20">
         <v>0.003</v>
       </c>
-      <c r="I20">
+      <c r="I20" t="s">
+        <v>273</v>
+      </c>
+      <c r="J20">
         <v>0.002680199403831018</v>
       </c>
-      <c r="J20" t="s">
-        <v>287</v>
-      </c>
       <c r="K20" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+        <v>296</v>
+      </c>
+      <c r="L20" t="s">
+        <v>392</v>
+      </c>
+      <c r="M20" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C21" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -2506,25 +2773,31 @@
       <c r="H21">
         <v>0.023</v>
       </c>
-      <c r="I21">
+      <c r="I21" t="s">
+        <v>273</v>
+      </c>
+      <c r="J21">
         <v>0.0226825305340308</v>
       </c>
-      <c r="J21" t="s">
-        <v>288</v>
-      </c>
       <c r="K21" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+        <v>297</v>
+      </c>
+      <c r="L21" t="s">
+        <v>393</v>
+      </c>
+      <c r="M21" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C22" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D22">
         <v>3.32</v>
@@ -2541,25 +2814,31 @@
       <c r="H22">
         <v>-0.02</v>
       </c>
-      <c r="I22">
+      <c r="I22" t="s">
+        <v>273</v>
+      </c>
+      <c r="J22">
         <v>-0.01979812403489156</v>
       </c>
-      <c r="J22" t="s">
-        <v>289</v>
-      </c>
       <c r="K22" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+        <v>298</v>
+      </c>
+      <c r="L22" t="s">
+        <v>394</v>
+      </c>
+      <c r="M22" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C23" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D23">
         <v>1.98</v>
@@ -2576,25 +2855,31 @@
       <c r="H23">
         <v>0.022</v>
       </c>
-      <c r="I23">
+      <c r="I23" t="s">
+        <v>273</v>
+      </c>
+      <c r="J23">
         <v>0.02207682058162486</v>
       </c>
-      <c r="J23" t="s">
-        <v>290</v>
-      </c>
       <c r="K23" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+        <v>299</v>
+      </c>
+      <c r="L23" t="s">
+        <v>395</v>
+      </c>
+      <c r="M23" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C24" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D24">
         <v>1.24</v>
@@ -2611,25 +2896,31 @@
       <c r="H24">
         <v>0.018</v>
       </c>
-      <c r="I24">
+      <c r="I24" t="s">
+        <v>274</v>
+      </c>
+      <c r="J24">
         <v>0.01781642463737754</v>
       </c>
-      <c r="J24" t="s">
-        <v>291</v>
-      </c>
       <c r="K24" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+        <v>300</v>
+      </c>
+      <c r="L24" t="s">
+        <v>396</v>
+      </c>
+      <c r="M24" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C25" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D25">
         <v>2.76</v>
@@ -2646,25 +2937,31 @@
       <c r="H25">
         <v>0.011</v>
       </c>
-      <c r="I25">
+      <c r="I25" t="s">
+        <v>274</v>
+      </c>
+      <c r="J25">
         <v>0.01071087106057989</v>
       </c>
-      <c r="J25" t="s">
-        <v>292</v>
-      </c>
       <c r="K25" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+        <v>301</v>
+      </c>
+      <c r="L25" t="s">
+        <v>397</v>
+      </c>
+      <c r="M25" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C26" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D26">
         <v>0.88</v>
@@ -2681,25 +2978,31 @@
       <c r="H26">
         <v>0.066</v>
       </c>
-      <c r="I26">
+      <c r="I26" t="s">
+        <v>274</v>
+      </c>
+      <c r="J26">
         <v>0.06640974497940588</v>
       </c>
-      <c r="J26" t="s">
-        <v>293</v>
-      </c>
       <c r="K26" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+        <v>302</v>
+      </c>
+      <c r="L26" t="s">
+        <v>398</v>
+      </c>
+      <c r="M26" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C27" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D27">
         <v>2.6</v>
@@ -2716,25 +3019,31 @@
       <c r="H27">
         <v>0.067</v>
       </c>
-      <c r="I27">
+      <c r="I27" t="s">
+        <v>274</v>
+      </c>
+      <c r="J27">
         <v>0.0667536626451728</v>
       </c>
-      <c r="J27" t="s">
-        <v>294</v>
-      </c>
       <c r="K27" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
+        <v>303</v>
+      </c>
+      <c r="L27" t="s">
+        <v>399</v>
+      </c>
+      <c r="M27" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C28" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D28">
         <v>4.76</v>
@@ -2751,25 +3060,31 @@
       <c r="H28">
         <v>-0.007</v>
       </c>
-      <c r="I28">
+      <c r="I28" t="s">
+        <v>274</v>
+      </c>
+      <c r="J28">
         <v>-0.007080454638136335</v>
       </c>
-      <c r="J28" t="s">
-        <v>295</v>
-      </c>
       <c r="K28" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+        <v>304</v>
+      </c>
+      <c r="L28" t="s">
+        <v>400</v>
+      </c>
+      <c r="M28" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C29" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D29">
         <v>4.09</v>
@@ -2786,25 +3101,31 @@
       <c r="H29">
         <v>0.027</v>
       </c>
-      <c r="I29">
+      <c r="I29" t="s">
+        <v>275</v>
+      </c>
+      <c r="J29">
         <v>0.02661192142600965</v>
       </c>
-      <c r="J29" t="s">
-        <v>296</v>
-      </c>
       <c r="K29" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
+        <v>305</v>
+      </c>
+      <c r="L29" t="s">
+        <v>401</v>
+      </c>
+      <c r="M29" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C30" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D30">
         <v>1.59</v>
@@ -2821,25 +3142,31 @@
       <c r="H30">
         <v>0.013</v>
       </c>
-      <c r="I30">
+      <c r="I30" t="s">
+        <v>275</v>
+      </c>
+      <c r="J30">
         <v>0.01262113240492191</v>
       </c>
-      <c r="J30" t="s">
-        <v>297</v>
-      </c>
       <c r="K30" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
+        <v>306</v>
+      </c>
+      <c r="L30" t="s">
+        <v>402</v>
+      </c>
+      <c r="M30" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C31" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D31">
         <v>1.9</v>
@@ -2856,25 +3183,31 @@
       <c r="H31">
         <v>0.027</v>
       </c>
-      <c r="I31">
+      <c r="I31" t="s">
+        <v>275</v>
+      </c>
+      <c r="J31">
         <v>0.02674318449889035</v>
       </c>
-      <c r="J31" t="s">
-        <v>298</v>
-      </c>
       <c r="K31" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
+        <v>307</v>
+      </c>
+      <c r="L31" t="s">
+        <v>403</v>
+      </c>
+      <c r="M31" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C32" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D32">
         <v>3.59</v>
@@ -2891,25 +3224,31 @@
       <c r="H32">
         <v>0.048</v>
       </c>
-      <c r="I32">
+      <c r="I32" t="s">
+        <v>275</v>
+      </c>
+      <c r="J32">
         <v>0.04746418851068301</v>
       </c>
-      <c r="J32" t="s">
-        <v>299</v>
-      </c>
       <c r="K32" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
+        <v>308</v>
+      </c>
+      <c r="L32" t="s">
+        <v>404</v>
+      </c>
+      <c r="M32" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B33" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C33" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D33">
         <v>5.69</v>
@@ -2926,25 +3265,31 @@
       <c r="H33">
         <v>-0.005</v>
       </c>
-      <c r="I33">
+      <c r="I33" t="s">
+        <v>275</v>
+      </c>
+      <c r="J33">
         <v>-0.004576871806444727</v>
       </c>
-      <c r="J33" t="s">
-        <v>300</v>
-      </c>
       <c r="K33" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
+        <v>309</v>
+      </c>
+      <c r="L33" t="s">
+        <v>405</v>
+      </c>
+      <c r="M33" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B34" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C34" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D34">
         <v>3.13</v>
@@ -2961,25 +3306,31 @@
       <c r="H34">
         <v>0.07099999999999999</v>
       </c>
-      <c r="I34">
+      <c r="I34" t="s">
+        <v>275</v>
+      </c>
+      <c r="J34">
         <v>0.0712384042051295</v>
       </c>
-      <c r="J34" t="s">
-        <v>301</v>
-      </c>
       <c r="K34" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
+        <v>310</v>
+      </c>
+      <c r="L34" t="s">
+        <v>406</v>
+      </c>
+      <c r="M34" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B35" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C35" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D35">
         <v>1.2</v>
@@ -2996,25 +3347,31 @@
       <c r="H35">
         <v>0.041</v>
       </c>
-      <c r="I35">
+      <c r="I35" t="s">
+        <v>275</v>
+      </c>
+      <c r="J35">
         <v>0.04115305605283082</v>
       </c>
-      <c r="J35" t="s">
-        <v>302</v>
-      </c>
       <c r="K35" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
+        <v>311</v>
+      </c>
+      <c r="L35" t="s">
+        <v>407</v>
+      </c>
+      <c r="M35" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B36" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C36" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D36">
         <v>1.87</v>
@@ -3031,25 +3388,31 @@
       <c r="H36">
         <v>0.034</v>
       </c>
-      <c r="I36">
+      <c r="I36" t="s">
+        <v>275</v>
+      </c>
+      <c r="J36">
         <v>0.03360717586235307</v>
       </c>
-      <c r="J36" t="s">
-        <v>283</v>
-      </c>
       <c r="K36" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
+        <v>292</v>
+      </c>
+      <c r="L36" t="s">
+        <v>408</v>
+      </c>
+      <c r="M36" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B37" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C37" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D37">
         <v>5</v>
@@ -3066,25 +3429,31 @@
       <c r="H37">
         <v>0.056</v>
       </c>
-      <c r="I37">
+      <c r="I37" t="s">
+        <v>275</v>
+      </c>
+      <c r="J37">
         <v>0.05573759184585647</v>
       </c>
-      <c r="J37" t="s">
-        <v>303</v>
-      </c>
       <c r="K37" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
+        <v>312</v>
+      </c>
+      <c r="L37" t="s">
+        <v>409</v>
+      </c>
+      <c r="M37" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B38" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C38" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D38">
         <v>1.59</v>
@@ -3101,25 +3470,31 @@
       <c r="H38">
         <v>0.008999999999999999</v>
       </c>
-      <c r="I38">
+      <c r="I38" t="s">
+        <v>275</v>
+      </c>
+      <c r="J38">
         <v>0.008720833598406141</v>
       </c>
-      <c r="J38" t="s">
-        <v>304</v>
-      </c>
       <c r="K38" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
+        <v>313</v>
+      </c>
+      <c r="L38" t="s">
+        <v>410</v>
+      </c>
+      <c r="M38" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B39" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C39" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D39">
         <v>2.02</v>
@@ -3136,25 +3511,31 @@
       <c r="H39">
         <v>0.036</v>
       </c>
-      <c r="I39">
+      <c r="I39" t="s">
+        <v>275</v>
+      </c>
+      <c r="J39">
         <v>0.03547908103037845</v>
       </c>
-      <c r="J39" t="s">
-        <v>305</v>
-      </c>
       <c r="K39" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
+        <v>314</v>
+      </c>
+      <c r="L39" t="s">
+        <v>411</v>
+      </c>
+      <c r="M39" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B40" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C40" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D40">
         <v>1.84</v>
@@ -3171,25 +3552,31 @@
       <c r="H40">
         <v>0.019</v>
       </c>
-      <c r="I40">
+      <c r="I40" t="s">
+        <v>275</v>
+      </c>
+      <c r="J40">
         <v>0.01886660727460732</v>
       </c>
-      <c r="J40" t="s">
-        <v>306</v>
-      </c>
       <c r="K40" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
+        <v>315</v>
+      </c>
+      <c r="L40" t="s">
+        <v>412</v>
+      </c>
+      <c r="M40" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B41" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C41" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D41">
         <v>4.06</v>
@@ -3206,25 +3593,31 @@
       <c r="H41">
         <v>-0.013</v>
       </c>
-      <c r="I41">
+      <c r="I41" t="s">
+        <v>275</v>
+      </c>
+      <c r="J41">
         <v>-0.01289091692087074</v>
       </c>
-      <c r="J41" t="s">
-        <v>307</v>
-      </c>
       <c r="K41" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
+        <v>316</v>
+      </c>
+      <c r="L41" t="s">
+        <v>413</v>
+      </c>
+      <c r="M41" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B42" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C42" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D42">
         <v>5.08</v>
@@ -3241,25 +3634,31 @@
       <c r="H42">
         <v>0.033</v>
       </c>
-      <c r="I42">
+      <c r="I42" t="s">
+        <v>275</v>
+      </c>
+      <c r="J42">
         <v>0.03285507687728972</v>
       </c>
-      <c r="J42" t="s">
-        <v>308</v>
-      </c>
       <c r="K42" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
+        <v>317</v>
+      </c>
+      <c r="L42" t="s">
+        <v>414</v>
+      </c>
+      <c r="M42" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B43" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C43" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D43">
         <v>1.34</v>
@@ -3276,25 +3675,31 @@
       <c r="H43">
         <v>0.027</v>
       </c>
-      <c r="I43">
+      <c r="I43" t="s">
+        <v>275</v>
+      </c>
+      <c r="J43">
         <v>0.02722431891705623</v>
       </c>
-      <c r="J43" t="s">
-        <v>309</v>
-      </c>
       <c r="K43" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
+        <v>318</v>
+      </c>
+      <c r="L43" t="s">
+        <v>415</v>
+      </c>
+      <c r="M43" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B44" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C44" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D44">
         <v>2.49</v>
@@ -3311,25 +3716,31 @@
       <c r="H44">
         <v>0.02</v>
       </c>
-      <c r="I44">
+      <c r="I44" t="s">
+        <v>275</v>
+      </c>
+      <c r="J44">
         <v>0.01997367604076072</v>
       </c>
-      <c r="J44" t="s">
-        <v>296</v>
-      </c>
       <c r="K44" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
+        <v>305</v>
+      </c>
+      <c r="L44" t="s">
+        <v>416</v>
+      </c>
+      <c r="M44" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B45" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C45" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D45">
         <v>1.33</v>
@@ -3346,25 +3757,31 @@
       <c r="H45">
         <v>0.046</v>
       </c>
-      <c r="I45">
+      <c r="I45" t="s">
+        <v>275</v>
+      </c>
+      <c r="J45">
         <v>0.04594664704001228</v>
       </c>
-      <c r="J45" t="s">
-        <v>310</v>
-      </c>
       <c r="K45" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
+        <v>319</v>
+      </c>
+      <c r="L45" t="s">
+        <v>417</v>
+      </c>
+      <c r="M45" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B46" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C46" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D46">
         <v>1.55</v>
@@ -3381,25 +3798,31 @@
       <c r="H46">
         <v>0.08400000000000001</v>
       </c>
-      <c r="I46">
+      <c r="I46" t="s">
+        <v>275</v>
+      </c>
+      <c r="J46">
         <v>0.08394430267016451</v>
       </c>
-      <c r="J46" t="s">
-        <v>311</v>
-      </c>
       <c r="K46" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
+        <v>320</v>
+      </c>
+      <c r="L46" t="s">
+        <v>418</v>
+      </c>
+      <c r="M46" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B47" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C47" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D47">
         <v>5.15</v>
@@ -3416,25 +3839,31 @@
       <c r="H47">
         <v>0.083</v>
       </c>
-      <c r="I47">
+      <c r="I47" t="s">
+        <v>275</v>
+      </c>
+      <c r="J47">
         <v>0.03758650633090332</v>
       </c>
-      <c r="J47" t="s">
-        <v>312</v>
-      </c>
       <c r="K47" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
+        <v>321</v>
+      </c>
+      <c r="L47" t="s">
+        <v>419</v>
+      </c>
+      <c r="M47" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B48" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C48" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D48">
         <v>2.3</v>
@@ -3451,25 +3880,31 @@
       <c r="H48">
         <v>0.006</v>
       </c>
-      <c r="I48">
+      <c r="I48" t="s">
+        <v>275</v>
+      </c>
+      <c r="J48">
         <v>0.005391030895665727</v>
       </c>
-      <c r="J48" t="s">
-        <v>291</v>
-      </c>
       <c r="K48" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11">
+        <v>300</v>
+      </c>
+      <c r="L48" t="s">
+        <v>420</v>
+      </c>
+      <c r="M48" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B49" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C49" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D49">
         <v>3.3</v>
@@ -3486,25 +3921,31 @@
       <c r="H49">
         <v>-0.002</v>
       </c>
-      <c r="I49">
+      <c r="I49" t="s">
+        <v>275</v>
+      </c>
+      <c r="J49">
         <v>-0.002178690647951287</v>
       </c>
-      <c r="J49" t="s">
-        <v>313</v>
-      </c>
       <c r="K49" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11">
+        <v>322</v>
+      </c>
+      <c r="L49" t="s">
+        <v>421</v>
+      </c>
+      <c r="M49" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B50" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C50" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D50">
         <v>3.78</v>
@@ -3521,25 +3962,31 @@
       <c r="H50">
         <v>0.016</v>
       </c>
-      <c r="I50">
+      <c r="I50" t="s">
+        <v>275</v>
+      </c>
+      <c r="J50">
         <v>0.01638625902185353</v>
       </c>
-      <c r="J50" t="s">
-        <v>314</v>
-      </c>
       <c r="K50" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11">
+        <v>323</v>
+      </c>
+      <c r="L50" t="s">
+        <v>422</v>
+      </c>
+      <c r="M50" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B51" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C51" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D51">
         <v>1.66</v>
@@ -3556,25 +4003,31 @@
       <c r="H51">
         <v>0.059</v>
       </c>
-      <c r="I51">
+      <c r="I51" t="s">
+        <v>275</v>
+      </c>
+      <c r="J51">
         <v>0.0592910669644533</v>
       </c>
-      <c r="J51" t="s">
-        <v>315</v>
-      </c>
       <c r="K51" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11">
+        <v>324</v>
+      </c>
+      <c r="L51" t="s">
+        <v>423</v>
+      </c>
+      <c r="M51" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B52" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C52" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D52">
         <v>3.74</v>
@@ -3591,25 +4044,31 @@
       <c r="H52">
         <v>0.026</v>
       </c>
-      <c r="I52">
+      <c r="I52" t="s">
+        <v>275</v>
+      </c>
+      <c r="J52">
         <v>0.02562087030957727</v>
       </c>
-      <c r="J52" t="s">
-        <v>316</v>
-      </c>
       <c r="K52" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11">
+        <v>325</v>
+      </c>
+      <c r="L52" t="s">
+        <v>424</v>
+      </c>
+      <c r="M52" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B53" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C53" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D53">
         <v>2.77</v>
@@ -3626,25 +4085,31 @@
       <c r="H53">
         <v>0.019</v>
       </c>
-      <c r="I53">
+      <c r="I53" t="s">
+        <v>275</v>
+      </c>
+      <c r="J53">
         <v>0.01853469300633881</v>
       </c>
-      <c r="J53" t="s">
-        <v>317</v>
-      </c>
       <c r="K53" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11">
+        <v>326</v>
+      </c>
+      <c r="L53" t="s">
+        <v>425</v>
+      </c>
+      <c r="M53" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B54" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C54" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D54">
         <v>1.44</v>
@@ -3661,25 +4126,31 @@
       <c r="H54">
         <v>0.001</v>
       </c>
-      <c r="I54">
+      <c r="I54" t="s">
+        <v>275</v>
+      </c>
+      <c r="J54">
         <v>0.001725652494094287</v>
       </c>
-      <c r="J54" t="s">
-        <v>318</v>
-      </c>
       <c r="K54" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11">
+        <v>327</v>
+      </c>
+      <c r="L54" t="s">
+        <v>426</v>
+      </c>
+      <c r="M54" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B55" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C55" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D55">
         <v>2.05</v>
@@ -3696,25 +4167,31 @@
       <c r="H55">
         <v>0.063</v>
       </c>
-      <c r="I55">
+      <c r="I55" t="s">
+        <v>275</v>
+      </c>
+      <c r="J55">
         <v>0.03334249904629072</v>
       </c>
-      <c r="J55" t="s">
-        <v>319</v>
-      </c>
       <c r="K55" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11">
+        <v>328</v>
+      </c>
+      <c r="L55" t="s">
+        <v>427</v>
+      </c>
+      <c r="M55" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B56" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C56" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D56">
         <v>3.86</v>
@@ -3731,25 +4208,31 @@
       <c r="H56">
         <v>0.021</v>
       </c>
-      <c r="I56">
+      <c r="I56" t="s">
+        <v>275</v>
+      </c>
+      <c r="J56">
         <v>0.02105042927632428</v>
       </c>
-      <c r="J56" t="s">
-        <v>320</v>
-      </c>
       <c r="K56" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11">
+        <v>329</v>
+      </c>
+      <c r="L56" t="s">
+        <v>428</v>
+      </c>
+      <c r="M56" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B57" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C57" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D57">
         <v>3</v>
@@ -3766,25 +4249,31 @@
       <c r="H57">
         <v>0.01</v>
       </c>
-      <c r="I57">
+      <c r="I57" t="s">
+        <v>275</v>
+      </c>
+      <c r="J57">
         <v>0.009621289435053804</v>
       </c>
-      <c r="J57" t="s">
-        <v>321</v>
-      </c>
       <c r="K57" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11">
+        <v>330</v>
+      </c>
+      <c r="L57" t="s">
+        <v>429</v>
+      </c>
+      <c r="M57" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B58" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C58" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D58">
         <v>1.08</v>
@@ -3801,25 +4290,31 @@
       <c r="H58">
         <v>0.167</v>
       </c>
-      <c r="I58">
+      <c r="I58" t="s">
+        <v>275</v>
+      </c>
+      <c r="J58">
         <v>0.1667928772024321</v>
       </c>
-      <c r="J58" t="s">
-        <v>322</v>
-      </c>
       <c r="K58" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11">
+        <v>331</v>
+      </c>
+      <c r="L58" t="s">
+        <v>430</v>
+      </c>
+      <c r="M58" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B59" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C59" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D59">
         <v>2.48</v>
@@ -3836,25 +4331,31 @@
       <c r="H59">
         <v>0.008999999999999999</v>
       </c>
-      <c r="I59">
+      <c r="I59" t="s">
+        <v>275</v>
+      </c>
+      <c r="J59">
         <v>0.008769414258976038</v>
       </c>
-      <c r="J59" t="s">
-        <v>323</v>
-      </c>
       <c r="K59" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11">
+        <v>332</v>
+      </c>
+      <c r="L59" t="s">
+        <v>431</v>
+      </c>
+      <c r="M59" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B60" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C60" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D60">
         <v>2.61</v>
@@ -3871,25 +4372,31 @@
       <c r="H60">
         <v>0.013</v>
       </c>
-      <c r="I60">
+      <c r="I60" t="s">
+        <v>275</v>
+      </c>
+      <c r="J60">
         <v>0.01274066738844182</v>
       </c>
-      <c r="J60" t="s">
-        <v>316</v>
-      </c>
       <c r="K60" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11">
+        <v>325</v>
+      </c>
+      <c r="L60" t="s">
+        <v>432</v>
+      </c>
+      <c r="M60" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B61" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C61" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D61">
         <v>5.95</v>
@@ -3906,25 +4413,31 @@
       <c r="H61">
         <v>0.026</v>
       </c>
-      <c r="I61">
+      <c r="I61" t="s">
+        <v>275</v>
+      </c>
+      <c r="J61">
         <v>0.02164597714557326</v>
       </c>
-      <c r="J61" t="s">
-        <v>324</v>
-      </c>
       <c r="K61" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11">
+        <v>333</v>
+      </c>
+      <c r="L61" t="s">
+        <v>433</v>
+      </c>
+      <c r="M61" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B62" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C62" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D62">
         <v>2.08</v>
@@ -3941,25 +4454,31 @@
       <c r="H62">
         <v>0.031</v>
       </c>
-      <c r="I62">
+      <c r="I62" t="s">
+        <v>275</v>
+      </c>
+      <c r="J62">
         <v>0.03091463132128891</v>
       </c>
-      <c r="J62" t="s">
-        <v>325</v>
-      </c>
       <c r="K62" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11">
+        <v>334</v>
+      </c>
+      <c r="L62" t="s">
+        <v>434</v>
+      </c>
+      <c r="M62" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B63" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C63" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D63">
         <v>2.25</v>
@@ -3976,25 +4495,31 @@
       <c r="H63">
         <v>0.037</v>
       </c>
-      <c r="I63">
+      <c r="I63" t="s">
+        <v>275</v>
+      </c>
+      <c r="J63">
         <v>0.03684718648700547</v>
       </c>
-      <c r="J63" t="s">
-        <v>326</v>
-      </c>
       <c r="K63" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11">
+        <v>335</v>
+      </c>
+      <c r="L63" t="s">
+        <v>435</v>
+      </c>
+      <c r="M63" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B64" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C64" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D64">
         <v>4.89</v>
@@ -4011,25 +4536,31 @@
       <c r="H64">
         <v>0.008</v>
       </c>
-      <c r="I64">
+      <c r="I64" t="s">
+        <v>275</v>
+      </c>
+      <c r="J64">
         <v>0.006939680868128129</v>
       </c>
-      <c r="J64" t="s">
-        <v>327</v>
-      </c>
       <c r="K64" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11">
+        <v>336</v>
+      </c>
+      <c r="L64" t="s">
+        <v>436</v>
+      </c>
+      <c r="M64" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B65" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C65" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D65">
         <v>2.15</v>
@@ -4046,25 +4577,31 @@
       <c r="H65">
         <v>0.08799999999999999</v>
       </c>
-      <c r="I65">
+      <c r="I65" t="s">
+        <v>275</v>
+      </c>
+      <c r="J65">
         <v>0.08766164270686794</v>
       </c>
-      <c r="J65" t="s">
-        <v>328</v>
-      </c>
       <c r="K65" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11">
+        <v>337</v>
+      </c>
+      <c r="L65" t="s">
+        <v>437</v>
+      </c>
+      <c r="M65" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B66" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C66" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D66">
         <v>4.9</v>
@@ -4081,25 +4618,31 @@
       <c r="H66">
         <v>0.031</v>
       </c>
-      <c r="I66">
+      <c r="I66" t="s">
+        <v>275</v>
+      </c>
+      <c r="J66">
         <v>0.03033218310767816</v>
       </c>
-      <c r="J66" t="s">
-        <v>329</v>
-      </c>
       <c r="K66" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11">
+        <v>338</v>
+      </c>
+      <c r="L66" t="s">
+        <v>438</v>
+      </c>
+      <c r="M66" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B67" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C67" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D67">
         <v>3.88</v>
@@ -4116,25 +4659,31 @@
       <c r="H67">
         <v>0.01</v>
       </c>
-      <c r="I67">
+      <c r="I67" t="s">
+        <v>275</v>
+      </c>
+      <c r="J67">
         <v>0.009642507767264386</v>
       </c>
-      <c r="J67" t="s">
-        <v>330</v>
-      </c>
       <c r="K67" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11">
+        <v>339</v>
+      </c>
+      <c r="L67" t="s">
+        <v>439</v>
+      </c>
+      <c r="M67" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B68" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C68" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D68">
         <v>2.13</v>
@@ -4151,25 +4700,31 @@
       <c r="H68">
         <v>0.028</v>
       </c>
-      <c r="I68">
+      <c r="I68" t="s">
+        <v>276</v>
+      </c>
+      <c r="J68">
         <v>0.02780390219872819</v>
       </c>
-      <c r="J68" t="s">
-        <v>331</v>
-      </c>
       <c r="K68" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11">
+        <v>340</v>
+      </c>
+      <c r="L68" t="s">
+        <v>440</v>
+      </c>
+      <c r="M68" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B69" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C69" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D69">
         <v>0.77</v>
@@ -4186,25 +4741,31 @@
       <c r="H69">
         <v>0.053</v>
       </c>
-      <c r="I69">
+      <c r="I69" t="s">
+        <v>276</v>
+      </c>
+      <c r="J69">
         <v>0.05263295912676846</v>
       </c>
-      <c r="J69" t="s">
-        <v>332</v>
-      </c>
       <c r="K69" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11">
+        <v>341</v>
+      </c>
+      <c r="L69" t="s">
+        <v>441</v>
+      </c>
+      <c r="M69" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B70" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C70" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D70">
         <v>1.66</v>
@@ -4221,25 +4782,31 @@
       <c r="H70">
         <v>0.013</v>
       </c>
-      <c r="I70">
+      <c r="I70" t="s">
+        <v>276</v>
+      </c>
+      <c r="J70">
         <v>0.01235168548819687</v>
       </c>
-      <c r="J70" t="s">
-        <v>333</v>
-      </c>
       <c r="K70" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11">
+        <v>342</v>
+      </c>
+      <c r="L70" t="s">
+        <v>442</v>
+      </c>
+      <c r="M70" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B71" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C71" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D71">
         <v>1.63</v>
@@ -4256,25 +4823,31 @@
       <c r="H71">
         <v>0.023</v>
       </c>
-      <c r="I71">
+      <c r="I71" t="s">
+        <v>276</v>
+      </c>
+      <c r="J71">
         <v>0.02331315787287269</v>
       </c>
-      <c r="J71" t="s">
-        <v>334</v>
-      </c>
       <c r="K71" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11">
+        <v>343</v>
+      </c>
+      <c r="L71" t="s">
+        <v>443</v>
+      </c>
+      <c r="M71" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B72" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C72" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D72">
         <v>2.79</v>
@@ -4291,25 +4864,31 @@
       <c r="H72">
         <v>0.07199999999999999</v>
       </c>
-      <c r="I72">
+      <c r="I72" t="s">
+        <v>276</v>
+      </c>
+      <c r="J72">
         <v>0.07237405795637786</v>
       </c>
-      <c r="J72" t="s">
-        <v>335</v>
-      </c>
       <c r="K72" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11">
+        <v>344</v>
+      </c>
+      <c r="L72" t="s">
+        <v>444</v>
+      </c>
+      <c r="M72" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B73" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C73" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D73">
         <v>1.72</v>
@@ -4326,25 +4905,31 @@
       <c r="H73">
         <v>-0.005</v>
       </c>
-      <c r="I73">
+      <c r="I73" t="s">
+        <v>276</v>
+      </c>
+      <c r="J73">
         <v>-0.004904709835394816</v>
       </c>
-      <c r="J73" t="s">
-        <v>336</v>
-      </c>
       <c r="K73" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11">
+        <v>345</v>
+      </c>
+      <c r="L73" t="s">
+        <v>445</v>
+      </c>
+      <c r="M73" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B74" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C74" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D74">
         <v>4.36</v>
@@ -4361,25 +4946,31 @@
       <c r="H74">
         <v>0.023</v>
       </c>
-      <c r="I74">
+      <c r="I74" t="s">
+        <v>276</v>
+      </c>
+      <c r="J74">
         <v>0.0230050532881716</v>
       </c>
-      <c r="J74" t="s">
-        <v>337</v>
-      </c>
       <c r="K74" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11">
+        <v>346</v>
+      </c>
+      <c r="L74" t="s">
+        <v>446</v>
+      </c>
+      <c r="M74" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B75" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C75" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D75">
         <v>1.84</v>
@@ -4396,25 +4987,31 @@
       <c r="H75">
         <v>0.014</v>
       </c>
-      <c r="I75">
+      <c r="I75" t="s">
+        <v>276</v>
+      </c>
+      <c r="J75">
         <v>0.01425540471015796</v>
       </c>
-      <c r="J75" t="s">
-        <v>338</v>
-      </c>
       <c r="K75" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11">
+        <v>347</v>
+      </c>
+      <c r="L75" t="s">
+        <v>447</v>
+      </c>
+      <c r="M75" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B76" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C76" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D76">
         <v>2.48</v>
@@ -4431,25 +5028,31 @@
       <c r="H76">
         <v>0.033</v>
       </c>
-      <c r="I76">
+      <c r="I76" t="s">
+        <v>276</v>
+      </c>
+      <c r="J76">
         <v>0.0327412237636544</v>
       </c>
-      <c r="J76" t="s">
-        <v>338</v>
-      </c>
       <c r="K76" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11">
+        <v>347</v>
+      </c>
+      <c r="L76" t="s">
+        <v>447</v>
+      </c>
+      <c r="M76" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B77" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C77" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D77">
         <v>2.85</v>
@@ -4466,25 +5069,31 @@
       <c r="H77">
         <v>0.027</v>
       </c>
-      <c r="I77">
+      <c r="I77" t="s">
+        <v>276</v>
+      </c>
+      <c r="J77">
         <v>0.02674412244974689</v>
       </c>
-      <c r="J77" t="s">
-        <v>339</v>
-      </c>
       <c r="K77" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11">
+        <v>348</v>
+      </c>
+      <c r="L77" t="s">
+        <v>448</v>
+      </c>
+      <c r="M77" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B78" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C78" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D78">
         <v>5.01</v>
@@ -4501,25 +5110,31 @@
       <c r="H78">
         <v>0.015</v>
       </c>
-      <c r="I78">
+      <c r="I78" t="s">
+        <v>276</v>
+      </c>
+      <c r="J78">
         <v>0.01513243650966367</v>
       </c>
-      <c r="J78" t="s">
-        <v>339</v>
-      </c>
       <c r="K78" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11">
+        <v>348</v>
+      </c>
+      <c r="L78" t="s">
+        <v>448</v>
+      </c>
+      <c r="M78" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B79" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C79" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D79">
         <v>3.43</v>
@@ -4536,25 +5151,31 @@
       <c r="H79">
         <v>0.036</v>
       </c>
-      <c r="I79">
+      <c r="I79" t="s">
+        <v>276</v>
+      </c>
+      <c r="J79">
         <v>0.0362616212439566</v>
       </c>
-      <c r="J79" t="s">
-        <v>340</v>
-      </c>
       <c r="K79" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11">
+        <v>349</v>
+      </c>
+      <c r="L79" t="s">
+        <v>449</v>
+      </c>
+      <c r="M79" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B80" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C80" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D80">
         <v>7.75</v>
@@ -4571,25 +5192,31 @@
       <c r="H80">
         <v>0.006</v>
       </c>
-      <c r="I80">
+      <c r="I80" t="s">
+        <v>276</v>
+      </c>
+      <c r="J80">
         <v>0.005474114004141883</v>
       </c>
-      <c r="J80" t="s">
-        <v>341</v>
-      </c>
       <c r="K80" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11">
+        <v>350</v>
+      </c>
+      <c r="L80" t="s">
+        <v>450</v>
+      </c>
+      <c r="M80" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
       <c r="A81" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B81" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C81" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D81">
         <v>1.63</v>
@@ -4606,25 +5233,31 @@
       <c r="H81">
         <v>0.016</v>
       </c>
-      <c r="I81">
+      <c r="I81" t="s">
+        <v>276</v>
+      </c>
+      <c r="J81">
         <v>0.01625021441421914</v>
       </c>
-      <c r="J81" t="s">
-        <v>342</v>
-      </c>
       <c r="K81" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11">
+        <v>351</v>
+      </c>
+      <c r="L81" t="s">
+        <v>451</v>
+      </c>
+      <c r="M81" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
       <c r="A82" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B82" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C82" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D82">
         <v>4.3</v>
@@ -4641,25 +5274,31 @@
       <c r="H82">
         <v>0</v>
       </c>
-      <c r="I82">
+      <c r="I82" t="s">
+        <v>277</v>
+      </c>
+      <c r="J82">
         <v>0.0002904023356140595</v>
       </c>
-      <c r="J82" t="s">
-        <v>343</v>
-      </c>
       <c r="K82" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11">
+        <v>352</v>
+      </c>
+      <c r="L82" t="s">
+        <v>452</v>
+      </c>
+      <c r="M82" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
       <c r="A83" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B83" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C83" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D83">
         <v>2.58</v>
@@ -4676,25 +5315,31 @@
       <c r="H83">
         <v>-0.006</v>
       </c>
-      <c r="I83">
+      <c r="I83" t="s">
+        <v>277</v>
+      </c>
+      <c r="J83">
         <v>-0.008579876689519983</v>
       </c>
-      <c r="J83" t="s">
-        <v>344</v>
-      </c>
       <c r="K83" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11">
+        <v>353</v>
+      </c>
+      <c r="L83" t="s">
+        <v>453</v>
+      </c>
+      <c r="M83" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
       <c r="A84" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B84" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C84" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D84">
         <v>2.58</v>
@@ -4711,25 +5356,31 @@
       <c r="H84">
         <v>-0.003</v>
       </c>
-      <c r="I84">
+      <c r="I84" t="s">
+        <v>277</v>
+      </c>
+      <c r="J84">
         <v>-0.002727557165592698</v>
       </c>
-      <c r="J84" t="s">
-        <v>344</v>
-      </c>
       <c r="K84" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11">
+        <v>353</v>
+      </c>
+      <c r="L84" t="s">
+        <v>453</v>
+      </c>
+      <c r="M84" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
       <c r="A85" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B85" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C85" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D85">
         <v>2.58</v>
@@ -4746,25 +5397,31 @@
       <c r="H85">
         <v>0.007</v>
       </c>
-      <c r="I85">
+      <c r="I85" t="s">
+        <v>277</v>
+      </c>
+      <c r="J85">
         <v>0.007139776198899606</v>
       </c>
-      <c r="J85" t="s">
-        <v>345</v>
-      </c>
       <c r="K85" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11">
+        <v>354</v>
+      </c>
+      <c r="L85" t="s">
+        <v>454</v>
+      </c>
+      <c r="M85" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
       <c r="A86" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B86" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C86" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D86">
         <v>2.02</v>
@@ -4781,25 +5438,31 @@
       <c r="H86">
         <v>0.017</v>
       </c>
-      <c r="I86">
+      <c r="I86" t="s">
+        <v>277</v>
+      </c>
+      <c r="J86">
         <v>0.01463689526804934</v>
       </c>
-      <c r="J86" t="s">
-        <v>346</v>
-      </c>
       <c r="K86" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11">
+        <v>355</v>
+      </c>
+      <c r="L86" t="s">
+        <v>455</v>
+      </c>
+      <c r="M86" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
       <c r="A87" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B87" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C87" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D87">
         <v>3.05</v>
@@ -4816,25 +5479,31 @@
       <c r="H87">
         <v>-0.015</v>
       </c>
-      <c r="I87">
+      <c r="I87" t="s">
+        <v>277</v>
+      </c>
+      <c r="J87">
         <v>-0.01592094535442801</v>
       </c>
-      <c r="J87" t="s">
-        <v>347</v>
-      </c>
       <c r="K87" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11">
+        <v>356</v>
+      </c>
+      <c r="L87" t="s">
+        <v>456</v>
+      </c>
+      <c r="M87" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
       <c r="A88" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B88" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C88" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D88">
         <v>2.36</v>
@@ -4851,25 +5520,31 @@
       <c r="H88">
         <v>0.039</v>
       </c>
-      <c r="I88">
+      <c r="I88" t="s">
+        <v>277</v>
+      </c>
+      <c r="J88">
         <v>0.03939681507474035</v>
       </c>
-      <c r="J88" t="s">
-        <v>348</v>
-      </c>
       <c r="K88" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11">
+        <v>357</v>
+      </c>
+      <c r="L88" t="s">
+        <v>457</v>
+      </c>
+      <c r="M88" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
       <c r="A89" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B89" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C89" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D89">
         <v>2.01</v>
@@ -4886,25 +5561,31 @@
       <c r="H89">
         <v>0.01</v>
       </c>
-      <c r="I89">
+      <c r="I89" t="s">
+        <v>277</v>
+      </c>
+      <c r="J89">
         <v>0.009665428589588521</v>
       </c>
-      <c r="J89" t="s">
-        <v>349</v>
-      </c>
       <c r="K89" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11">
+        <v>358</v>
+      </c>
+      <c r="L89" t="s">
+        <v>458</v>
+      </c>
+      <c r="M89" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
       <c r="A90" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B90" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C90" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D90">
         <v>1.8</v>
@@ -4921,25 +5602,31 @@
       <c r="H90">
         <v>0.045</v>
       </c>
-      <c r="I90">
+      <c r="I90" t="s">
+        <v>277</v>
+      </c>
+      <c r="J90">
         <v>0.04463722726921637</v>
       </c>
-      <c r="J90" t="s">
-        <v>350</v>
-      </c>
       <c r="K90" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11">
+        <v>359</v>
+      </c>
+      <c r="L90" t="s">
+        <v>459</v>
+      </c>
+      <c r="M90" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
       <c r="A91" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B91" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C91" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D91">
         <v>3.89</v>
@@ -4956,25 +5643,31 @@
       <c r="H91">
         <v>0.003</v>
       </c>
-      <c r="I91">
+      <c r="I91" t="s">
+        <v>277</v>
+      </c>
+      <c r="J91">
         <v>0.002560840427365596</v>
       </c>
-      <c r="J91" t="s">
-        <v>350</v>
-      </c>
       <c r="K91" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11">
+        <v>359</v>
+      </c>
+      <c r="L91" t="s">
+        <v>459</v>
+      </c>
+      <c r="M91" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
       <c r="A92" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B92" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C92" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D92">
         <v>3.09</v>
@@ -4991,25 +5684,31 @@
       <c r="H92">
         <v>0.002</v>
       </c>
-      <c r="I92">
+      <c r="I92" t="s">
+        <v>277</v>
+      </c>
+      <c r="J92">
         <v>0.002008477921433327</v>
       </c>
-      <c r="J92" t="s">
-        <v>351</v>
-      </c>
       <c r="K92" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11">
+        <v>360</v>
+      </c>
+      <c r="L92" t="s">
+        <v>460</v>
+      </c>
+      <c r="M92" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
       <c r="A93" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B93" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C93" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D93">
         <v>1.42</v>
@@ -5026,25 +5725,31 @@
       <c r="H93">
         <v>0.025</v>
       </c>
-      <c r="I93">
+      <c r="I93" t="s">
+        <v>277</v>
+      </c>
+      <c r="J93">
         <v>0.02572894963243377</v>
       </c>
-      <c r="J93" t="s">
-        <v>352</v>
-      </c>
       <c r="K93" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11">
+        <v>361</v>
+      </c>
+      <c r="L93" t="s">
+        <v>461</v>
+      </c>
+      <c r="M93" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
       <c r="A94" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B94" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C94" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D94">
         <v>4.68</v>
@@ -5061,25 +5766,31 @@
       <c r="H94">
         <v>0.017</v>
       </c>
-      <c r="I94">
+      <c r="I94" t="s">
+        <v>278</v>
+      </c>
+      <c r="J94">
         <v>0.01717917715534534</v>
       </c>
-      <c r="J94" t="s">
-        <v>353</v>
-      </c>
       <c r="K94" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11">
+        <v>362</v>
+      </c>
+      <c r="L94" t="s">
+        <v>462</v>
+      </c>
+      <c r="M94" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
       <c r="A95" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B95" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C95" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D95">
         <v>4</v>
@@ -5096,25 +5807,31 @@
       <c r="H95">
         <v>0.011</v>
       </c>
-      <c r="I95">
+      <c r="I95" t="s">
+        <v>278</v>
+      </c>
+      <c r="J95">
         <v>0.01117264687763053</v>
       </c>
-      <c r="J95" t="s">
-        <v>140</v>
-      </c>
       <c r="K95" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11">
+        <v>142</v>
+      </c>
+      <c r="L95" t="s">
+        <v>463</v>
+      </c>
+      <c r="M95" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
       <c r="A96" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B96" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C96" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D96">
         <v>2.88</v>
@@ -5131,25 +5848,31 @@
       <c r="H96">
         <v>0.034</v>
       </c>
-      <c r="I96">
+      <c r="I96" t="s">
+        <v>278</v>
+      </c>
+      <c r="J96">
         <v>0.03423351631135363</v>
       </c>
-      <c r="J96" t="s">
-        <v>354</v>
-      </c>
       <c r="K96" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11">
+        <v>363</v>
+      </c>
+      <c r="L96" t="s">
+        <v>464</v>
+      </c>
+      <c r="M96" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
       <c r="A97" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B97" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C97" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D97">
         <v>6.12</v>
@@ -5166,25 +5889,31 @@
       <c r="H97">
         <v>0.047</v>
       </c>
-      <c r="I97">
+      <c r="I97" t="s">
+        <v>278</v>
+      </c>
+      <c r="J97">
         <v>0.04683940276633103</v>
       </c>
-      <c r="J97" t="s">
-        <v>355</v>
-      </c>
       <c r="K97" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11">
+        <v>364</v>
+      </c>
+      <c r="L97" t="s">
+        <v>465</v>
+      </c>
+      <c r="M97" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
       <c r="A98" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B98" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C98" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D98">
         <v>1.69</v>
@@ -5201,25 +5930,31 @@
       <c r="H98">
         <v>0.019</v>
       </c>
-      <c r="I98">
+      <c r="I98" t="s">
+        <v>278</v>
+      </c>
+      <c r="J98">
         <v>0.01888937243505584</v>
       </c>
-      <c r="J98" t="s">
-        <v>356</v>
-      </c>
       <c r="K98" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11">
+        <v>365</v>
+      </c>
+      <c r="L98" t="s">
+        <v>466</v>
+      </c>
+      <c r="M98" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
       <c r="A99" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B99" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C99" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D99">
         <v>2.97</v>
@@ -5236,25 +5971,31 @@
       <c r="H99">
         <v>0.008</v>
       </c>
-      <c r="I99">
+      <c r="I99" t="s">
+        <v>278</v>
+      </c>
+      <c r="J99">
         <v>0.00813758667370923</v>
       </c>
-      <c r="J99" t="s">
-        <v>356</v>
-      </c>
       <c r="K99" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11">
+        <v>365</v>
+      </c>
+      <c r="L99" t="s">
+        <v>466</v>
+      </c>
+      <c r="M99" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
       <c r="A100" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B100" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C100" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D100">
         <v>2.37</v>
@@ -5271,25 +6012,31 @@
       <c r="H100">
         <v>0.053</v>
       </c>
-      <c r="I100">
+      <c r="I100" t="s">
+        <v>278</v>
+      </c>
+      <c r="J100">
         <v>0.05321185522067862</v>
       </c>
-      <c r="J100" t="s">
-        <v>354</v>
-      </c>
       <c r="K100" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11">
+        <v>363</v>
+      </c>
+      <c r="L100" t="s">
+        <v>464</v>
+      </c>
+      <c r="M100" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
       <c r="A101" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B101" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C101" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D101">
         <v>6</v>
@@ -5306,25 +6053,31 @@
       <c r="H101">
         <v>0.015</v>
       </c>
-      <c r="I101">
+      <c r="I101" t="s">
+        <v>278</v>
+      </c>
+      <c r="J101">
         <v>0.01502026074307117</v>
       </c>
-      <c r="J101" t="s">
-        <v>357</v>
-      </c>
       <c r="K101" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11">
+        <v>366</v>
+      </c>
+      <c r="L101" t="s">
+        <v>467</v>
+      </c>
+      <c r="M101" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
       <c r="A102" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B102" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C102" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D102">
         <v>1.99</v>
@@ -5341,25 +6094,31 @@
       <c r="H102">
         <v>0.076</v>
       </c>
-      <c r="I102">
+      <c r="I102" t="s">
+        <v>278</v>
+      </c>
+      <c r="J102">
         <v>0.07608182142232622</v>
       </c>
-      <c r="J102" t="s">
-        <v>358</v>
-      </c>
       <c r="K102" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11">
+        <v>367</v>
+      </c>
+      <c r="L102" t="s">
+        <v>468</v>
+      </c>
+      <c r="M102" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
       <c r="A103" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B103" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C103" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D103">
         <v>2.16</v>
@@ -5376,25 +6135,31 @@
       <c r="H103">
         <v>0.029</v>
       </c>
-      <c r="I103">
+      <c r="I103" t="s">
+        <v>278</v>
+      </c>
+      <c r="J103">
         <v>0.02923463923624103</v>
       </c>
-      <c r="J103" t="s">
-        <v>356</v>
-      </c>
       <c r="K103" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11">
+        <v>365</v>
+      </c>
+      <c r="L103" t="s">
+        <v>466</v>
+      </c>
+      <c r="M103" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
       <c r="A104" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B104" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C104" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D104">
         <v>4.1</v>
@@ -5411,25 +6176,31 @@
       <c r="H104">
         <v>0.061</v>
       </c>
-      <c r="I104">
+      <c r="I104" t="s">
+        <v>278</v>
+      </c>
+      <c r="J104">
         <v>0.06060393661725305</v>
       </c>
-      <c r="J104" t="s">
-        <v>355</v>
-      </c>
       <c r="K104" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11">
+        <v>364</v>
+      </c>
+      <c r="L104" t="s">
+        <v>465</v>
+      </c>
+      <c r="M104" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13">
       <c r="A105" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B105" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C105" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D105">
         <v>4.89</v>
@@ -5446,25 +6217,31 @@
       <c r="H105">
         <v>0.074</v>
       </c>
-      <c r="I105">
+      <c r="I105" t="s">
+        <v>278</v>
+      </c>
+      <c r="J105">
         <v>0.06239070722567774</v>
       </c>
-      <c r="J105" t="s">
-        <v>359</v>
-      </c>
       <c r="K105" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11">
+        <v>368</v>
+      </c>
+      <c r="L105" t="s">
+        <v>469</v>
+      </c>
+      <c r="M105" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13">
       <c r="A106" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B106" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C106" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D106">
         <v>1.81</v>
@@ -5481,25 +6258,31 @@
       <c r="H106">
         <v>0.027</v>
       </c>
-      <c r="I106">
+      <c r="I106" t="s">
+        <v>278</v>
+      </c>
+      <c r="J106">
         <v>0.02242229118438877</v>
       </c>
-      <c r="J106" t="s">
-        <v>360</v>
-      </c>
       <c r="K106" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11">
+        <v>369</v>
+      </c>
+      <c r="L106" t="s">
+        <v>470</v>
+      </c>
+      <c r="M106" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13">
       <c r="A107" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B107" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C107" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D107">
         <v>4.13</v>
@@ -5516,25 +6299,31 @@
       <c r="H107">
         <v>0.057</v>
       </c>
-      <c r="I107">
+      <c r="I107" t="s">
+        <v>278</v>
+      </c>
+      <c r="J107">
         <v>0.04781856466457701</v>
       </c>
-      <c r="J107" t="s">
-        <v>355</v>
-      </c>
       <c r="K107" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11">
+        <v>364</v>
+      </c>
+      <c r="L107" t="s">
+        <v>465</v>
+      </c>
+      <c r="M107" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13">
       <c r="A108" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B108" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C108" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D108">
         <v>3.46</v>
@@ -5551,25 +6340,31 @@
       <c r="H108">
         <v>0.032</v>
       </c>
-      <c r="I108">
+      <c r="I108" t="s">
+        <v>278</v>
+      </c>
+      <c r="J108">
         <v>0.03244228590938714</v>
       </c>
-      <c r="J108" t="s">
-        <v>361</v>
-      </c>
       <c r="K108" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11">
+        <v>370</v>
+      </c>
+      <c r="L108" t="s">
+        <v>471</v>
+      </c>
+      <c r="M108" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13">
       <c r="A109" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B109" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C109" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D109">
         <v>4.92</v>
@@ -5586,25 +6381,31 @@
       <c r="H109">
         <v>0.03</v>
       </c>
-      <c r="I109">
+      <c r="I109" t="s">
+        <v>278</v>
+      </c>
+      <c r="J109">
         <v>0.02985648951967046</v>
       </c>
-      <c r="J109" t="s">
-        <v>323</v>
-      </c>
       <c r="K109" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11">
+        <v>332</v>
+      </c>
+      <c r="L109" t="s">
+        <v>472</v>
+      </c>
+      <c r="M109" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13">
       <c r="A110" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B110" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C110" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D110">
         <v>2.56</v>
@@ -5621,25 +6422,31 @@
       <c r="H110">
         <v>0.01</v>
       </c>
-      <c r="I110">
+      <c r="I110" t="s">
+        <v>278</v>
+      </c>
+      <c r="J110">
         <v>0.01080415086078368</v>
       </c>
-      <c r="J110" t="s">
-        <v>362</v>
-      </c>
       <c r="K110" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11">
+        <v>371</v>
+      </c>
+      <c r="L110" t="s">
+        <v>473</v>
+      </c>
+      <c r="M110" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13">
       <c r="A111" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B111" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C111" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D111">
         <v>3.47</v>
@@ -5656,25 +6463,31 @@
       <c r="H111">
         <v>0.06</v>
       </c>
-      <c r="I111">
+      <c r="I111" t="s">
+        <v>278</v>
+      </c>
+      <c r="J111">
         <v>0.060096222991878</v>
       </c>
-      <c r="J111" t="s">
-        <v>363</v>
-      </c>
       <c r="K111" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11">
+        <v>372</v>
+      </c>
+      <c r="L111" t="s">
+        <v>474</v>
+      </c>
+      <c r="M111" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13">
       <c r="A112" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B112" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C112" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D112">
         <v>1.97</v>
@@ -5691,25 +6504,31 @@
       <c r="H112">
         <v>0.006</v>
       </c>
-      <c r="I112">
+      <c r="I112" t="s">
+        <v>278</v>
+      </c>
+      <c r="J112">
         <v>0.006055410426011765</v>
       </c>
-      <c r="J112" t="s">
-        <v>364</v>
-      </c>
       <c r="K112" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11">
+        <v>373</v>
+      </c>
+      <c r="L112" t="s">
+        <v>475</v>
+      </c>
+      <c r="M112" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13">
       <c r="A113" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B113" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C113" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D113">
         <v>4.39</v>
@@ -5726,14 +6545,20 @@
       <c r="H113">
         <v>0.042</v>
       </c>
-      <c r="I113">
+      <c r="I113" t="s">
+        <v>278</v>
+      </c>
+      <c r="J113">
         <v>0.04248485851535211</v>
       </c>
-      <c r="J113" t="s">
-        <v>365</v>
-      </c>
       <c r="K113" t="s">
-        <v>467</v>
+        <v>374</v>
+      </c>
+      <c r="L113" t="s">
+        <v>476</v>
+      </c>
+      <c r="M113" t="s">
+        <v>516</v>
       </c>
     </row>
   </sheetData>
